--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>179.325903970984</v>
+        <v>0.186504</v>
       </c>
       <c r="H2">
-        <v>179.325903970984</v>
+        <v>0.559512</v>
       </c>
       <c r="I2">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496626</v>
       </c>
       <c r="J2">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496627</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N2">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O2">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P2">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q2">
-        <v>727.3904169884125</v>
+        <v>0.7697371329199999</v>
       </c>
       <c r="R2">
-        <v>727.3904169884125</v>
+        <v>6.927634196279999</v>
       </c>
       <c r="S2">
-        <v>0.05614438857596031</v>
+        <v>5.318420064498959E-05</v>
       </c>
       <c r="T2">
-        <v>0.05614438857596031</v>
+        <v>5.318420064498959E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>179.325903970984</v>
+        <v>0.186504</v>
       </c>
       <c r="H3">
-        <v>179.325903970984</v>
+        <v>0.559512</v>
       </c>
       <c r="I3">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496626</v>
       </c>
       <c r="J3">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496627</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N3">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P3">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q3">
-        <v>8427.747054585519</v>
+        <v>8.81212998272</v>
       </c>
       <c r="R3">
-        <v>8427.747054585519</v>
+        <v>79.30916984448</v>
       </c>
       <c r="S3">
-        <v>0.6505044531815602</v>
+        <v>0.0006088651165012958</v>
       </c>
       <c r="T3">
-        <v>0.6505044531815602</v>
+        <v>0.0006088651165012957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>179.325903970984</v>
+        <v>0.186504</v>
       </c>
       <c r="H4">
-        <v>179.325903970984</v>
+        <v>0.559512</v>
       </c>
       <c r="I4">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496626</v>
       </c>
       <c r="J4">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496627</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N4">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O4">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P4">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q4">
-        <v>1248.498785988643</v>
+        <v>1.532848027392</v>
       </c>
       <c r="R4">
-        <v>1248.498785988643</v>
+        <v>13.795632246528</v>
       </c>
       <c r="S4">
-        <v>0.09636668196341902</v>
+        <v>0.0001059105681154211</v>
       </c>
       <c r="T4">
-        <v>0.09636668196341902</v>
+        <v>0.0001059105681154211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>179.325903970984</v>
+        <v>0.186504</v>
       </c>
       <c r="H5">
-        <v>179.325903970984</v>
+        <v>0.559512</v>
       </c>
       <c r="I5">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496626</v>
       </c>
       <c r="J5">
-        <v>0.9786053710075558</v>
+        <v>0.0009474183894496627</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N5">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O5">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P5">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q5">
-        <v>2274.891141862593</v>
+        <v>2.59731034436</v>
       </c>
       <c r="R5">
-        <v>2274.891141862593</v>
+        <v>23.37579309924</v>
       </c>
       <c r="S5">
-        <v>0.1755898472866163</v>
+        <v>0.0001794585041879563</v>
       </c>
       <c r="T5">
-        <v>0.1755898472866163</v>
+        <v>0.0001794585041879563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.920488582894</v>
+        <v>191.4773253333333</v>
       </c>
       <c r="H6">
-        <v>3.920488582894</v>
+        <v>574.431976</v>
       </c>
       <c r="I6">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418036</v>
       </c>
       <c r="J6">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418037</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N6">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O6">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P6">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q6">
-        <v>15.90247567117243</v>
+        <v>790.2629832136042</v>
       </c>
       <c r="R6">
-        <v>15.90247567117243</v>
+        <v>7112.366848922438</v>
       </c>
       <c r="S6">
-        <v>0.001227449183477878</v>
+        <v>0.05460241329673329</v>
       </c>
       <c r="T6">
-        <v>0.001227449183477878</v>
+        <v>0.05460241329673329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.920488582894</v>
+        <v>191.4773253333333</v>
       </c>
       <c r="H7">
-        <v>3.920488582894</v>
+        <v>574.431976</v>
       </c>
       <c r="I7">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418036</v>
       </c>
       <c r="J7">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418037</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N7">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P7">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q7">
-        <v>184.2504924016291</v>
+        <v>9047.114697705669</v>
       </c>
       <c r="R7">
-        <v>184.2504924016291</v>
+        <v>81424.03227935103</v>
       </c>
       <c r="S7">
-        <v>0.01422156657430075</v>
+        <v>0.6251011452646404</v>
       </c>
       <c r="T7">
-        <v>0.01422156657430075</v>
+        <v>0.6251011452646403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.920488582894</v>
+        <v>191.4773253333333</v>
       </c>
       <c r="H8">
-        <v>3.920488582894</v>
+        <v>574.431976</v>
       </c>
       <c r="I8">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418036</v>
       </c>
       <c r="J8">
-        <v>0.02139462899244415</v>
+        <v>0.9726822973418037</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N8">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O8">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P8">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q8">
-        <v>27.29513766743644</v>
+        <v>1573.723032361216</v>
       </c>
       <c r="R8">
-        <v>27.29513766743644</v>
+        <v>14163.50729125094</v>
       </c>
       <c r="S8">
-        <v>0.002106803691172763</v>
+        <v>0.1087347848157393</v>
       </c>
       <c r="T8">
-        <v>0.002106803691172763</v>
+        <v>0.1087347848157394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>191.4773253333333</v>
+      </c>
+      <c r="H9">
+        <v>574.431976</v>
+      </c>
+      <c r="I9">
+        <v>0.9726822973418036</v>
+      </c>
+      <c r="J9">
+        <v>0.9726822973418037</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.92629833333334</v>
+      </c>
+      <c r="N9">
+        <v>41.77889500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="P9">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="Q9">
+        <v>2666.570356660724</v>
+      </c>
+      <c r="R9">
+        <v>23999.13320994652</v>
+      </c>
+      <c r="S9">
+        <v>0.1842439539646906</v>
+      </c>
+      <c r="T9">
+        <v>0.1842439539646906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.204976</v>
+      </c>
+      <c r="I10">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="J10">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.127188333333333</v>
+      </c>
+      <c r="N10">
+        <v>12.381565</v>
+      </c>
+      <c r="O10">
+        <v>0.0561359176022362</v>
+      </c>
+      <c r="P10">
+        <v>0.05613591760223619</v>
+      </c>
+      <c r="Q10">
+        <v>1.657720963048889</v>
+      </c>
+      <c r="R10">
+        <v>14.91948866744</v>
+      </c>
+      <c r="S10">
+        <v>0.000114538536003512</v>
+      </c>
+      <c r="T10">
+        <v>0.0001145385360035119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.204976</v>
+      </c>
+      <c r="I11">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="J11">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>47.24901333333333</v>
+      </c>
+      <c r="N11">
+        <v>141.74704</v>
+      </c>
+      <c r="O11">
+        <v>0.6426570597336346</v>
+      </c>
+      <c r="P11">
+        <v>0.6426570597336345</v>
+      </c>
+      <c r="Q11">
+        <v>18.97797569678222</v>
+      </c>
+      <c r="R11">
+        <v>170.80178127104</v>
+      </c>
+      <c r="S11">
+        <v>0.001311263838168378</v>
+      </c>
+      <c r="T11">
+        <v>0.001311263838168378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.204976</v>
+      </c>
+      <c r="I12">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="J12">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.218847999999999</v>
+      </c>
+      <c r="N12">
+        <v>24.656544</v>
+      </c>
+      <c r="O12">
+        <v>0.1117885923419141</v>
+      </c>
+      <c r="P12">
+        <v>0.1117885923419141</v>
+      </c>
+      <c r="Q12">
+        <v>3.301171529216</v>
+      </c>
+      <c r="R12">
+        <v>29.710543762944</v>
+      </c>
+      <c r="S12">
+        <v>0.0002280910735166497</v>
+      </c>
+      <c r="T12">
+        <v>0.0002280910735166497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.204976</v>
+      </c>
+      <c r="I13">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="J13">
+        <v>0.002040378796603999</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.92629833333334</v>
+      </c>
+      <c r="N13">
+        <v>41.77889500000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="P13">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="Q13">
+        <v>5.593618420168889</v>
+      </c>
+      <c r="R13">
+        <v>50.34256578152001</v>
+      </c>
+      <c r="S13">
+        <v>0.0003864853489154599</v>
+      </c>
+      <c r="T13">
+        <v>0.0003864853489154599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.789462333333334</v>
+      </c>
+      <c r="H14">
+        <v>14.368387</v>
+      </c>
+      <c r="I14">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="J14">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.127188333333333</v>
+      </c>
+      <c r="N14">
+        <v>12.381565</v>
+      </c>
+      <c r="O14">
+        <v>0.0561359176022362</v>
+      </c>
+      <c r="P14">
+        <v>0.05613591760223619</v>
+      </c>
+      <c r="Q14">
+        <v>19.76701306507278</v>
+      </c>
+      <c r="R14">
+        <v>177.903117585655</v>
+      </c>
+      <c r="S14">
+        <v>0.001365781568854395</v>
+      </c>
+      <c r="T14">
+        <v>0.001365781568854395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.920488582894</v>
-      </c>
-      <c r="H9">
-        <v>3.920488582894</v>
-      </c>
-      <c r="I9">
-        <v>0.02139462899244415</v>
-      </c>
-      <c r="J9">
-        <v>0.02139462899244415</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>12.6857921331359</v>
-      </c>
-      <c r="N9">
-        <v>12.6857921331359</v>
-      </c>
-      <c r="O9">
-        <v>0.179428656830109</v>
-      </c>
-      <c r="P9">
-        <v>0.179428656830109</v>
-      </c>
-      <c r="Q9">
-        <v>49.73450322292582</v>
-      </c>
-      <c r="R9">
-        <v>49.73450322292582</v>
-      </c>
-      <c r="S9">
-        <v>0.003838809543492762</v>
-      </c>
-      <c r="T9">
-        <v>0.003838809543492762</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.789462333333334</v>
+      </c>
+      <c r="H15">
+        <v>14.368387</v>
+      </c>
+      <c r="I15">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="J15">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>47.24901333333333</v>
+      </c>
+      <c r="N15">
+        <v>141.74704</v>
+      </c>
+      <c r="O15">
+        <v>0.6426570597336346</v>
+      </c>
+      <c r="P15">
+        <v>0.6426570597336345</v>
+      </c>
+      <c r="Q15">
+        <v>226.2973696471645</v>
+      </c>
+      <c r="R15">
+        <v>2036.67632682448</v>
+      </c>
+      <c r="S15">
+        <v>0.01563578551432445</v>
+      </c>
+      <c r="T15">
+        <v>0.01563578551432445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.789462333333334</v>
+      </c>
+      <c r="H16">
+        <v>14.368387</v>
+      </c>
+      <c r="I16">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="J16">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.218847999999999</v>
+      </c>
+      <c r="N16">
+        <v>24.656544</v>
+      </c>
+      <c r="O16">
+        <v>0.1117885923419141</v>
+      </c>
+      <c r="P16">
+        <v>0.1117885923419141</v>
+      </c>
+      <c r="Q16">
+        <v>39.363862919392</v>
+      </c>
+      <c r="R16">
+        <v>354.2747662745281</v>
+      </c>
+      <c r="S16">
+        <v>0.002719805884542658</v>
+      </c>
+      <c r="T16">
+        <v>0.002719805884542658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.789462333333334</v>
+      </c>
+      <c r="H17">
+        <v>14.368387</v>
+      </c>
+      <c r="I17">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="J17">
+        <v>0.02432990547214264</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.92629833333334</v>
+      </c>
+      <c r="N17">
+        <v>41.77889500000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="P17">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="Q17">
+        <v>66.6994813102628</v>
+      </c>
+      <c r="R17">
+        <v>600.2953317923651</v>
+      </c>
+      <c r="S17">
+        <v>0.004608532504421133</v>
+      </c>
+      <c r="T17">
+        <v>0.004608532504421133</v>
       </c>
     </row>
   </sheetData>
